--- a/stock_template.xlsx
+++ b/stock_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="checkouts" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,9 @@
     <sheet name="person_dict" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="dept_dict" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'dept_dict'!$A$1:$C$6</definedName>
+  </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -515,7 +517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,96 +564,96 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>10/02/24 08:43 PM</t>
+          <t>10/03/24 01:14 PM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Kristi Hall</t>
+          <t>Heather Hoffman</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2518</v>
+        <v>5096</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Expo Eraser</t>
+          <t>Post-It stack</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>cuz i want</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>10/02/24 08:43 PM</t>
+          <t>10/03/24 01:14 PM</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Kristi Hall</t>
+          <t>Heather Hoffman</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2518</v>
+        <v>5096</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compisition Notebook</t>
+          <t>HP Paper Ream</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>kids</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09/27/24 10:17 PM</t>
+          <t>10/03/24 11:13 AM</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Kristi Hall</t>
+          <t>Heather Hoffman</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2386</v>
+        <v>2485</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Post-It stack</t>
+          <t>Expo Marker</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09/25/24 11:05 PM</t>
+          <t>10/03/24 11:13 AM</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -660,11 +662,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5096</v>
+        <v>2485</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AA Battery (Energizer)</t>
+          <t>Expo Marker</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -674,11 +676,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09/25/24 10:42 PM</t>
+          <t>10/03/24 11:13 AM</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -691,7 +693,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HP Paper Ream</t>
+          <t>#2 Ticonderoga</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -705,32 +707,38 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09/25/24 10:37 PM</t>
+          <t>10/03/24 11:09 AM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Heather Hoffman</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2386</v>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Post-It stack</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Stack It!</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09/25/24 10:13 PM</t>
+          <t>10/03/24 11:08 AM</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -738,35 +746,43 @@
           <t>Kristi Hall</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>2518</v>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Black Bic Pen</t>
+          <t>Post-It stack</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>stack it!</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09/25/24 10:13 PM</t>
+          <t>10/03/24 11:02 AM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kristi Hall</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Heather Hoffman</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2485</v>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AA Battery (Duracell)</t>
+          <t>Black Bic Pen</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -776,95 +792,421 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09/25/24 10:00 PM</t>
+          <t>10/03/24 10:56 AM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Heather Hoffman</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2386</v>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Expo Eraser</t>
+          <t>Expo Marker</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09/25/24 09:54 PM</t>
+          <t>10/03/24 10:55 AM</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Heather Hoffman</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2518</v>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Expo Eraser</t>
+          <t>File Folder</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09/25/24 09:50 PM</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>10/03/24 10:55 AM</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2518</v>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Post-It stack</t>
+          <t>AA Battery (Duracell)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>cuz i can</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10/03/24 10:54 AM</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2518</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>AA Battery (Duracell)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>22</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>10/02/24 08:43 PM</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2518</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Expo Eraser</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10/02/24 08:43 PM</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2518</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Compisition Notebook</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>kids</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>09/27/24 10:17 PM</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2386</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Post-It stack</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>09/25/24 11:05 PM</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Heather Hoffman</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5096</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>AA Battery (Energizer)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>09/25/24 10:42 PM</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2383</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HP Paper Ream</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>09/25/24 10:37 PM</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Heather Hoffman</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Post-It stack</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>24</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>09/25/24 10:13 PM</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Black Bic Pen</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>67</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>09/25/24 10:13 PM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kristi Hall</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>AA Battery (Duracell)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>09/25/24 10:00 PM</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Heather Hoffman</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Expo Eraser</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>12</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>09/25/24 09:54 PM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Heather Hoffman</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Expo Eraser</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>09/25/24 09:50 PM</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Post-It stack</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>09/25/24</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Expo Eraser</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F25" t="n">
         <v>1</v>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1218,10 +1560,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1261,6 +1603,18 @@
         </is>
       </c>
       <c r="B3" t="inlineStr">
+        <is>
+          <t>PE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Steve Rogers</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
@@ -1279,8 +1633,8 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -1383,6 +1737,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stock_template.xlsx
+++ b/stock_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cadb858e6df91a75/repo/copy_room_inventory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamiller1\Desktop\copyroom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{9A6286C2-893F-4019-A79D-61A3EFBB8F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21B9C87F-43D0-409D-B0BA-BAD535CE815A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02504128-9C3F-4C05-AE74-50B63890BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checkouts" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="copies_dict" sheetId="5" r:id="rId3"/>
     <sheet name="person_dict" sheetId="3" r:id="rId4"/>
     <sheet name="dept_dict" sheetId="4" r:id="rId5"/>
+    <sheet name="school" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">dept_dict!$A$1:$C$6</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
   <si>
     <t>item_id</t>
   </si>
@@ -228,6 +229,15 @@
   </si>
   <si>
     <t>single</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>Fremont</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
@@ -237,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -674,9 +684,9 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -715,19 +725,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.88671875" customWidth="1"/>
-    <col min="9" max="9" width="70.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.9140625" customWidth="1"/>
+    <col min="9" max="9" width="70.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -756,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>31</v>
       </c>
@@ -785,7 +795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>32</v>
       </c>
@@ -796,7 +806,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>24</v>
       </c>
@@ -822,7 +832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>22</v>
       </c>
@@ -848,7 +858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>16</v>
       </c>
@@ -874,7 +884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>35</v>
       </c>
@@ -903,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>17</v>
       </c>
@@ -932,7 +942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>12</v>
       </c>
@@ -958,7 +968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>3</v>
       </c>
@@ -981,7 +991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1041,17 +1051,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A0027-95F8-4031-A68D-C6DE269BF65E}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1093,7 +1103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1149,7 +1159,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1163,7 +1173,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1177,7 +1187,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1191,7 +1201,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -1205,7 +1215,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -1219,7 +1229,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -1233,7 +1243,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -1261,7 +1271,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -1288,13 +1298,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1302,7 +1312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1310,7 +1320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1339,14 +1349,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="47.109375" customWidth="1"/>
-    <col min="3" max="3" width="37.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.58203125" customWidth="1"/>
+    <col min="2" max="2" width="47.08203125" customWidth="1"/>
+    <col min="3" max="3" width="37.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -1357,7 +1367,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1379,7 +1389,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1390,7 +1400,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1401,7 +1411,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1416,4 +1426,37 @@
   <autoFilter ref="A1:C6" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0219849-C054-49EE-91B4-6C78C58B0825}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/stock_template.xlsx
+++ b/stock_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kamiller1\Desktop\copyroom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cadb858e6df91a75/repo/copy_room_inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02504128-9C3F-4C05-AE74-50B63890BCA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A6EE2A98-C989-44DE-9FBB-6637E597FF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABAEBCA0-12C6-4F0E-A92C-50AB95D9FC9F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="checkouts" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
   <si>
     <t>item_id</t>
   </si>
@@ -231,13 +231,25 @@
     <t>single</t>
   </si>
   <si>
-    <t>school</t>
-  </si>
-  <si>
     <t>Fremont</t>
   </si>
   <si>
-    <t>email</t>
+    <t>background_link</t>
+  </si>
+  <si>
+    <t>School Name</t>
+  </si>
+  <si>
+    <t>users_name</t>
+  </si>
+  <si>
+    <t>Karrie</t>
+  </si>
+  <si>
+    <t>https://static.vecteezy.com/system/resources/previews/038/035/644/large_2x/ai-generated-wolf-high-quality-image-free-photo.jpg</t>
+  </si>
+  <si>
+    <t>buffer_amount</t>
   </si>
 </sst>
 </file>
@@ -247,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +292,12 @@
       <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -327,7 +345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -339,6 +357,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -684,9 +704,9 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -725,19 +745,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="4" width="10.9140625" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17.9140625" customWidth="1"/>
-    <col min="9" max="9" width="70.4140625" customWidth="1"/>
+    <col min="8" max="8" width="17.88671875" customWidth="1"/>
+    <col min="9" max="9" width="70.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -766,7 +786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>31</v>
       </c>
@@ -795,7 +815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>32</v>
       </c>
@@ -806,7 +826,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>24</v>
       </c>
@@ -832,7 +852,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22</v>
       </c>
@@ -858,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>16</v>
       </c>
@@ -884,7 +904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>35</v>
       </c>
@@ -913,7 +933,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17</v>
       </c>
@@ -942,7 +962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
@@ -968,7 +988,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -991,7 +1011,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1014,7 +1034,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -1055,13 +1075,13 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1075,7 +1095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1089,7 +1109,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1002</v>
       </c>
@@ -1103,7 +1123,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1003</v>
       </c>
@@ -1117,7 +1137,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1004</v>
       </c>
@@ -1131,7 +1151,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1005</v>
       </c>
@@ -1145,7 +1165,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1006</v>
       </c>
@@ -1159,7 +1179,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1007</v>
       </c>
@@ -1173,7 +1193,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1008</v>
       </c>
@@ -1187,7 +1207,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1009</v>
       </c>
@@ -1201,7 +1221,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -1215,7 +1235,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1011</v>
       </c>
@@ -1229,7 +1249,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1012</v>
       </c>
@@ -1243,7 +1263,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1013</v>
       </c>
@@ -1257,7 +1277,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1014</v>
       </c>
@@ -1271,7 +1291,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1015</v>
       </c>
@@ -1298,13 +1318,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="10.9140625" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1312,7 +1332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1320,7 +1340,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1328,7 +1348,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1349,14 +1369,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" customWidth="1"/>
-    <col min="2" max="2" width="47.08203125" customWidth="1"/>
-    <col min="3" max="3" width="37.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="37.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1387,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1378,7 +1398,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1389,7 +1409,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1400,7 +1420,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1431,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1430,33 +1450,51 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0219849-C054-49EE-91B4-6C78C58B0825}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>69</v>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="8">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{B1C69DCE-8611-49F8-9F2F-C6C7DC9565B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/stock_template.xlsx
+++ b/stock_template.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cadb858e6df91a75/repo/copy_room_inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{A6EE2A98-C989-44DE-9FBB-6637E597FF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABAEBCA0-12C6-4F0E-A92C-50AB95D9FC9F}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{A6EE2A98-C989-44DE-9FBB-6637E597FF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9B2E95C-D253-4E37-B275-7139F2ABE3B8}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="checkouts" sheetId="1" r:id="rId1"/>
-    <sheet name="inventory" sheetId="2" r:id="rId2"/>
-    <sheet name="copies_dict" sheetId="5" r:id="rId3"/>
-    <sheet name="person_dict" sheetId="3" r:id="rId4"/>
-    <sheet name="dept_dict" sheetId="4" r:id="rId5"/>
-    <sheet name="school" sheetId="6" r:id="rId6"/>
+    <sheet name="Rules" sheetId="7" r:id="rId1"/>
+    <sheet name="checkouts" sheetId="1" r:id="rId2"/>
+    <sheet name="inventory" sheetId="2" r:id="rId3"/>
+    <sheet name="copies_dict" sheetId="5" r:id="rId4"/>
+    <sheet name="person_dict" sheetId="3" r:id="rId5"/>
+    <sheet name="dept_dict" sheetId="4" r:id="rId6"/>
+    <sheet name="school" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">dept_dict!$A$1:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">dept_dict!$A$1:$C$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="88">
   <si>
     <t>item_id</t>
   </si>
@@ -250,6 +251,104 @@
   </si>
   <si>
     <t>buffer_amount</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>ACT Prep</t>
+  </si>
+  <si>
+    <t>AP Testing</t>
+  </si>
+  <si>
+    <t>Chromebooks</t>
+  </si>
+  <si>
+    <t>Emergency Prep / Safety Facilitator</t>
+  </si>
+  <si>
+    <t>Attendnace Office</t>
+  </si>
+  <si>
+    <t>AP Calc / AP Stats</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Then the app WILL NOT WORK, no empty boxes</t>
+  </si>
+  <si>
+    <t>AP Stats</t>
+  </si>
+  <si>
+    <t>There should be no repeat Account Numbers in your dept_dict sheet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There can be </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO empty spaces</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on ANY of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">BOLDED </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">columns. (On Inventory sheet some columns can be left blank). </t>
+    </r>
+  </si>
+  <si>
+    <t>For Example, if your dept_dict sheet looks like this:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is fine on inventory, notice the first 3 are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bolded</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -259,7 +358,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,16 +398,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -340,12 +475,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -359,6 +503,25 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -366,6 +529,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -375,6 +543,74 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>475488</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Right 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6944DDC-3991-E147-6E44-89073995CB62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4335780" y="4892040"/>
+          <a:ext cx="978408" cy="484632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,6 +933,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56949B96-085E-4EB2-835B-F08F01B99BC3}">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.65">
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8">
+        <v>0.78</v>
+      </c>
+      <c r="L8">
+        <v>400</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
+        <v>485</v>
+      </c>
+      <c r="I9">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+    </row>
+    <row r="17" spans="1:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="11">
+        <v>2</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="2">
+        <v>286</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="2">
+        <v>258</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="2">
+        <v>233</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
+        <v>63</v>
+      </c>
+      <c r="L22" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2">
+        <v>485</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="13">
+        <v>506</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" t="s">
+        <v>80</v>
+      </c>
+      <c r="L24" s="13">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="13">
+        <v>506</v>
+      </c>
+      <c r="L25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F21:I24"/>
+    <mergeCell ref="A1:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="I6:O6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -737,12 +1452,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -767,22 +1482,22 @@
       <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1067,7 +1782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7A0027-95F8-4031-A68D-C6DE269BF65E}">
   <dimension ref="A1:D16"/>
   <sheetViews>
@@ -1310,7 +2025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1361,12 +2076,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,10 +2151,65 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2">
         <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="2">
+        <v>817.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="2">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1090.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1227</v>
       </c>
     </row>
   </sheetData>
@@ -1448,11 +2218,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0219849-C054-49EE-91B4-6C78C58B0825}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
